--- a/data/pca/factorExposure/factorExposure_2016-02-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-02-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.007224604958963717</v>
+        <v>0.0129555292607766</v>
       </c>
       <c r="C2">
-        <v>0.05101122592691869</v>
+        <v>0.04229658489450954</v>
       </c>
       <c r="D2">
-        <v>0.07851507982432702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.09379670882100967</v>
+      </c>
+      <c r="E2">
+        <v>0.1189187853289297</v>
+      </c>
+      <c r="F2">
+        <v>0.02682036617669449</v>
+      </c>
+      <c r="G2">
+        <v>0.04163478006203287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02557382444593507</v>
+        <v>0.01560263093604426</v>
       </c>
       <c r="C3">
-        <v>0.1061438321776917</v>
+        <v>0.05235268904365042</v>
       </c>
       <c r="D3">
-        <v>0.1012794048229938</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07944429458648827</v>
+      </c>
+      <c r="E3">
+        <v>0.1106484337518954</v>
+      </c>
+      <c r="F3">
+        <v>-0.05187425331773086</v>
+      </c>
+      <c r="G3">
+        <v>0.09077984076733214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0593433166281297</v>
+        <v>0.05993949852265026</v>
       </c>
       <c r="C4">
-        <v>0.06832150286770332</v>
+        <v>0.06801955378738078</v>
       </c>
       <c r="D4">
-        <v>0.07965770813019256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1070931046117418</v>
+      </c>
+      <c r="E4">
+        <v>0.08702475055667322</v>
+      </c>
+      <c r="F4">
+        <v>-0.03003460194496559</v>
+      </c>
+      <c r="G4">
+        <v>-0.03733075425149222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.04373131117263576</v>
+        <v>0.04063693703338708</v>
       </c>
       <c r="C6">
-        <v>0.04534183258496885</v>
+        <v>0.03184527041661044</v>
       </c>
       <c r="D6">
-        <v>0.07904455867979363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1041460803243203</v>
+      </c>
+      <c r="E6">
+        <v>0.07393316618828433</v>
+      </c>
+      <c r="F6">
+        <v>-0.01957961535195434</v>
+      </c>
+      <c r="G6">
+        <v>0.003953505041875953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02794415267577027</v>
+        <v>0.02070641957049547</v>
       </c>
       <c r="C7">
-        <v>0.04302137057669127</v>
+        <v>0.04042658737845225</v>
       </c>
       <c r="D7">
-        <v>0.05576407430402617</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.07712068465750128</v>
+      </c>
+      <c r="E7">
+        <v>0.06725617140320922</v>
+      </c>
+      <c r="F7">
+        <v>-0.02391423187372244</v>
+      </c>
+      <c r="G7">
+        <v>-0.05165286024723027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.007319305121429674</v>
+        <v>0.006281316036696362</v>
       </c>
       <c r="C8">
-        <v>0.05025909475420358</v>
+        <v>0.04010964846311936</v>
       </c>
       <c r="D8">
-        <v>0.04946833730396392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.06428514304212869</v>
+      </c>
+      <c r="E8">
+        <v>0.05468765496935669</v>
+      </c>
+      <c r="F8">
+        <v>-0.01549549761149189</v>
+      </c>
+      <c r="G8">
+        <v>0.01265357534459499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.04103959320290737</v>
+        <v>0.0433881819490895</v>
       </c>
       <c r="C9">
-        <v>0.05175369186554559</v>
+        <v>0.05560863781968407</v>
       </c>
       <c r="D9">
-        <v>0.06612272155944253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.09092248969154104</v>
+      </c>
+      <c r="E9">
+        <v>0.065590360986336</v>
+      </c>
+      <c r="F9">
+        <v>-0.006493916035536532</v>
+      </c>
+      <c r="G9">
+        <v>-0.03963515633624211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.09059385934172574</v>
+        <v>0.1150402064089653</v>
       </c>
       <c r="C10">
-        <v>-0.177883508006757</v>
+        <v>-0.1925190124112129</v>
       </c>
       <c r="D10">
-        <v>0.00565267628752925</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.008525823334933111</v>
+      </c>
+      <c r="E10">
+        <v>0.04634974111100675</v>
+      </c>
+      <c r="F10">
+        <v>-0.01509305410136154</v>
+      </c>
+      <c r="G10">
+        <v>-0.03715369348823662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04176822905533889</v>
+        <v>0.03498768107465471</v>
       </c>
       <c r="C11">
-        <v>0.05528239514571464</v>
+        <v>0.0494573874699811</v>
       </c>
       <c r="D11">
-        <v>0.04304585175318976</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05108408031305158</v>
+      </c>
+      <c r="E11">
+        <v>0.02822266977162969</v>
+      </c>
+      <c r="F11">
+        <v>-0.01144254295534567</v>
+      </c>
+      <c r="G11">
+        <v>-0.03931834973803008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04525290247498579</v>
+        <v>0.03756334555798885</v>
       </c>
       <c r="C12">
-        <v>0.05067826097074433</v>
+        <v>0.04830689034546322</v>
       </c>
       <c r="D12">
-        <v>0.02805849692464085</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04454195484956095</v>
+      </c>
+      <c r="E12">
+        <v>0.03995939093607593</v>
+      </c>
+      <c r="F12">
+        <v>-0.005205671110404097</v>
+      </c>
+      <c r="G12">
+        <v>-0.0356973276523556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01532370046329029</v>
+        <v>0.01598665915962522</v>
       </c>
       <c r="C13">
-        <v>0.05877701813902785</v>
+        <v>0.04629123030807123</v>
       </c>
       <c r="D13">
-        <v>0.06420673957161854</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1005063566415515</v>
+      </c>
+      <c r="E13">
+        <v>0.112532967459144</v>
+      </c>
+      <c r="F13">
+        <v>-0.0267425920781046</v>
+      </c>
+      <c r="G13">
+        <v>-0.0428177140078382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.0138740663952105</v>
+        <v>0.007396174654556146</v>
       </c>
       <c r="C14">
-        <v>0.03412146110417705</v>
+        <v>0.03079293144456507</v>
       </c>
       <c r="D14">
-        <v>0.03674945090967807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0602865454727099</v>
+      </c>
+      <c r="E14">
+        <v>0.07208727375104809</v>
+      </c>
+      <c r="F14">
+        <v>0.003241958182243761</v>
+      </c>
+      <c r="G14">
+        <v>-0.03212492396182844</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0003977701336627714</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.00720776685436343</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0161112498570912</v>
+      </c>
+      <c r="E15">
+        <v>0.008123054046666573</v>
+      </c>
+      <c r="F15">
+        <v>0.001578853192060705</v>
+      </c>
+      <c r="G15">
+        <v>0.003116110096367985</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.04141976304515954</v>
+        <v>0.03482020755457574</v>
       </c>
       <c r="C16">
-        <v>0.05332257054826434</v>
+        <v>0.04803557737206079</v>
       </c>
       <c r="D16">
-        <v>0.03432614380000279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.04992060036726802</v>
+      </c>
+      <c r="E16">
+        <v>0.04195776619052007</v>
+      </c>
+      <c r="F16">
+        <v>0.005656639383585339</v>
+      </c>
+      <c r="G16">
+        <v>-0.03049068873767918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01952083076040912</v>
+        <v>0.01376394035869742</v>
       </c>
       <c r="C19">
-        <v>0.04952795663349447</v>
+        <v>0.03872368752332785</v>
       </c>
       <c r="D19">
-        <v>0.1165756373209829</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1134808065069531</v>
+      </c>
+      <c r="E19">
+        <v>0.1155324884811983</v>
+      </c>
+      <c r="F19">
+        <v>0.01781278293761138</v>
+      </c>
+      <c r="G19">
+        <v>-1.868368599060444e-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01969459175855685</v>
+        <v>0.0155316713632118</v>
       </c>
       <c r="C20">
-        <v>0.05395362006366936</v>
+        <v>0.04328249288203277</v>
       </c>
       <c r="D20">
-        <v>0.05309601010875285</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07383983622534265</v>
+      </c>
+      <c r="E20">
+        <v>0.08582984326991627</v>
+      </c>
+      <c r="F20">
+        <v>-0.004261573698258877</v>
+      </c>
+      <c r="G20">
+        <v>-0.01994597902884821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01622420129321281</v>
+        <v>0.01323891555671506</v>
       </c>
       <c r="C21">
-        <v>0.05836230963077384</v>
+        <v>0.04693415134479675</v>
       </c>
       <c r="D21">
-        <v>0.06713796161648659</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1012021018487258</v>
+      </c>
+      <c r="E21">
+        <v>0.1426829138033018</v>
+      </c>
+      <c r="F21">
+        <v>0.007782309049217143</v>
+      </c>
+      <c r="G21">
+        <v>-0.06200267230908502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.001256028208387864</v>
+        <v>0.004711122994388244</v>
       </c>
       <c r="C22">
-        <v>0.01426092450036797</v>
+        <v>0.0318155358107403</v>
       </c>
       <c r="D22">
-        <v>0.03820928230465719</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.08795889824704529</v>
+      </c>
+      <c r="E22">
+        <v>0.05660719164483062</v>
+      </c>
+      <c r="F22">
+        <v>-0.06885915088733556</v>
+      </c>
+      <c r="G22">
+        <v>0.05391238655775309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.001268814014415659</v>
+        <v>0.004836648292954659</v>
       </c>
       <c r="C23">
-        <v>0.014208403828418</v>
+        <v>0.03189688978923304</v>
       </c>
       <c r="D23">
-        <v>0.03799908299437006</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.08729261025539521</v>
+      </c>
+      <c r="E23">
+        <v>0.05691004328254614</v>
+      </c>
+      <c r="F23">
+        <v>-0.06892765025603197</v>
+      </c>
+      <c r="G23">
+        <v>0.05314482654844196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03833394041025861</v>
+        <v>0.03581670192235119</v>
       </c>
       <c r="C24">
-        <v>0.05416490776386691</v>
+        <v>0.05656413941079256</v>
       </c>
       <c r="D24">
-        <v>0.0404238610853724</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05259806494145299</v>
+      </c>
+      <c r="E24">
+        <v>0.04489694297290934</v>
+      </c>
+      <c r="F24">
+        <v>0.002723839161627</v>
+      </c>
+      <c r="G24">
+        <v>-0.0456598047046693</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04815940454339255</v>
+        <v>0.0419236978059645</v>
       </c>
       <c r="C25">
-        <v>0.06016713783964223</v>
+        <v>0.05678725872216287</v>
       </c>
       <c r="D25">
-        <v>0.03828329586895611</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.04905387846876878</v>
+      </c>
+      <c r="E25">
+        <v>0.03749622188772581</v>
+      </c>
+      <c r="F25">
+        <v>-0.01432244226998831</v>
+      </c>
+      <c r="G25">
+        <v>-0.04906690026315166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02270180211541743</v>
+        <v>0.01898118776612224</v>
       </c>
       <c r="C26">
-        <v>0.01904386540292007</v>
+        <v>0.01954825643935582</v>
       </c>
       <c r="D26">
-        <v>0.03411995562961295</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.05370235112111253</v>
+      </c>
+      <c r="E26">
+        <v>0.05366624519200772</v>
+      </c>
+      <c r="F26">
+        <v>0.008460433330907464</v>
+      </c>
+      <c r="G26">
+        <v>-0.007978222721314571</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1170150699697358</v>
+        <v>0.1588552925601844</v>
       </c>
       <c r="C28">
-        <v>-0.2532787245556816</v>
+        <v>-0.2506891028878075</v>
       </c>
       <c r="D28">
-        <v>-0.02196858945634078</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02067685694590378</v>
+      </c>
+      <c r="E28">
+        <v>0.08160102560239296</v>
+      </c>
+      <c r="F28">
+        <v>-0.008627235272540735</v>
+      </c>
+      <c r="G28">
+        <v>-0.0759309995840257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.009101271916054853</v>
+        <v>0.006763359392843586</v>
       </c>
       <c r="C29">
-        <v>0.03154446494640113</v>
+        <v>0.02898591786750029</v>
       </c>
       <c r="D29">
-        <v>0.02574520391462621</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.05451626984865323</v>
+      </c>
+      <c r="E29">
+        <v>0.07074836894696387</v>
+      </c>
+      <c r="F29">
+        <v>-0.007624617191541375</v>
+      </c>
+      <c r="G29">
+        <v>-0.03977712592118089</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03896755414403852</v>
+        <v>0.04033877055019028</v>
       </c>
       <c r="C30">
-        <v>0.04184833865910962</v>
+        <v>0.05488489192837041</v>
       </c>
       <c r="D30">
-        <v>0.1177221007224589</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1479036463337336</v>
+      </c>
+      <c r="E30">
+        <v>0.08467740660584494</v>
+      </c>
+      <c r="F30">
+        <v>0.005118103164342459</v>
+      </c>
+      <c r="G30">
+        <v>0.02427684356023126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.06809287060754041</v>
+        <v>0.06293732506515928</v>
       </c>
       <c r="C31">
-        <v>0.06265204566845825</v>
+        <v>0.06994483022247819</v>
       </c>
       <c r="D31">
-        <v>0.01068646399919853</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02992432483958708</v>
+      </c>
+      <c r="E31">
+        <v>0.06684141863589403</v>
+      </c>
+      <c r="F31">
+        <v>-0.04621331015587377</v>
+      </c>
+      <c r="G31">
+        <v>-0.02856687800274409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006203362090614564</v>
+        <v>0.002990737814163862</v>
       </c>
       <c r="C32">
-        <v>0.02849860581113134</v>
+        <v>0.0297249915781849</v>
       </c>
       <c r="D32">
-        <v>0.04792168012337045</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.06687832655764582</v>
+      </c>
+      <c r="E32">
+        <v>0.109386068794515</v>
+      </c>
+      <c r="F32">
+        <v>0.01675744170720382</v>
+      </c>
+      <c r="G32">
+        <v>-0.06058231697747105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03124913173625723</v>
+        <v>0.02622285365381511</v>
       </c>
       <c r="C33">
-        <v>0.05322819278634144</v>
+        <v>0.0493014547178093</v>
       </c>
       <c r="D33">
-        <v>0.0879962192334524</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1101945994458763</v>
+      </c>
+      <c r="E33">
+        <v>0.09162272195620622</v>
+      </c>
+      <c r="F33">
+        <v>-0.02180048778232618</v>
+      </c>
+      <c r="G33">
+        <v>-0.03900902729381281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04194117246638437</v>
+        <v>0.03682753749735083</v>
       </c>
       <c r="C34">
-        <v>0.06983947961903812</v>
+        <v>0.06598355324377504</v>
       </c>
       <c r="D34">
-        <v>0.05506808479398333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05816245762388703</v>
+      </c>
+      <c r="E34">
+        <v>0.02235769092766335</v>
+      </c>
+      <c r="F34">
+        <v>0.0002817959389599586</v>
+      </c>
+      <c r="G34">
+        <v>-0.04947430060658375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>4.014564329664073e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0006145728787039512</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0007354712587412506</v>
+      </c>
+      <c r="E35">
+        <v>-0.0008193301992937733</v>
+      </c>
+      <c r="F35">
+        <v>4.395389635069281e-05</v>
+      </c>
+      <c r="G35">
+        <v>8.187862479269694e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02382341804173214</v>
+        <v>0.01921648683969189</v>
       </c>
       <c r="C36">
-        <v>0.02242979888629172</v>
+        <v>0.01752391015505726</v>
       </c>
       <c r="D36">
-        <v>0.03207341746067265</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0576662627006018</v>
+      </c>
+      <c r="E36">
+        <v>0.06445831344358868</v>
+      </c>
+      <c r="F36">
+        <v>-0.005285742862830499</v>
+      </c>
+      <c r="G36">
+        <v>-0.03067497810813109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.0337885453278251</v>
+        <v>0.02483542851387752</v>
       </c>
       <c r="C38">
-        <v>0.03969805501968787</v>
+        <v>0.02910208454636935</v>
       </c>
       <c r="D38">
-        <v>0.02006604223126599</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0487777278160416</v>
+      </c>
+      <c r="E38">
+        <v>0.05119096559200692</v>
+      </c>
+      <c r="F38">
+        <v>-0.007035248122062271</v>
+      </c>
+      <c r="G38">
+        <v>0.01428397125450473</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04835911333173527</v>
+        <v>0.04136567063069627</v>
       </c>
       <c r="C39">
-        <v>0.06546429056764073</v>
+        <v>0.06388218932789361</v>
       </c>
       <c r="D39">
-        <v>0.05884276954730032</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.08376333114557799</v>
+      </c>
+      <c r="E39">
+        <v>0.04797468377114771</v>
+      </c>
+      <c r="F39">
+        <v>0.02158649010667309</v>
+      </c>
+      <c r="G39">
+        <v>-0.02935114229792503</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.009377848241970967</v>
+        <v>0.01332516401490179</v>
       </c>
       <c r="C40">
-        <v>0.05481770472347012</v>
+        <v>0.0404856195577221</v>
       </c>
       <c r="D40">
-        <v>0.03857004128527767</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0657916289218288</v>
+      </c>
+      <c r="E40">
+        <v>0.1184806895935645</v>
+      </c>
+      <c r="F40">
+        <v>-0.04384084404868077</v>
+      </c>
+      <c r="G40">
+        <v>-0.006509835081692002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02746737366832317</v>
+        <v>0.02218713349465483</v>
       </c>
       <c r="C41">
-        <v>0.01569227440498925</v>
+        <v>0.01152553026003944</v>
       </c>
       <c r="D41">
-        <v>0.02882554053181808</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03926012665515202</v>
+      </c>
+      <c r="E41">
+        <v>0.07224652452829454</v>
+      </c>
+      <c r="F41">
+        <v>-0.008638379275112049</v>
+      </c>
+      <c r="G41">
+        <v>-0.02368398732880658</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04762512979003668</v>
+        <v>0.03214922674000449</v>
       </c>
       <c r="C43">
-        <v>0.0399321038807589</v>
+        <v>0.02643286748394984</v>
       </c>
       <c r="D43">
-        <v>0.06184353868572123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.07326472207822605</v>
+      </c>
+      <c r="E43">
+        <v>0.07524344751464723</v>
+      </c>
+      <c r="F43">
+        <v>-0.03082195572967958</v>
+      </c>
+      <c r="G43">
+        <v>-0.03284247573542795</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01421119573515688</v>
+        <v>0.01709329252928543</v>
       </c>
       <c r="C44">
-        <v>0.06738469095916146</v>
+        <v>0.04847902278415275</v>
       </c>
       <c r="D44">
-        <v>0.03644929349717686</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.06990107511079381</v>
+      </c>
+      <c r="E44">
+        <v>0.1008407712490976</v>
+      </c>
+      <c r="F44">
+        <v>0.00921902135520178</v>
+      </c>
+      <c r="G44">
+        <v>-0.02591926864734656</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01673447877781257</v>
+        <v>0.01466941599976141</v>
       </c>
       <c r="C46">
-        <v>0.03310085244664852</v>
+        <v>0.03305694233817566</v>
       </c>
       <c r="D46">
-        <v>0.02433479457654818</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.05286465622885289</v>
+      </c>
+      <c r="E46">
+        <v>0.07863075158356488</v>
+      </c>
+      <c r="F46">
+        <v>0.009198158883922508</v>
+      </c>
+      <c r="G46">
+        <v>-0.05730928678473137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.09261076349999628</v>
+        <v>0.09243195606950405</v>
       </c>
       <c r="C47">
-        <v>0.08390182846539632</v>
+        <v>0.08953675898329745</v>
       </c>
       <c r="D47">
-        <v>-0.0121789726885801</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.007313843690259242</v>
+      </c>
+      <c r="E47">
+        <v>0.05620449951528829</v>
+      </c>
+      <c r="F47">
+        <v>-0.03214478899679798</v>
+      </c>
+      <c r="G47">
+        <v>-0.06337678131189386</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02839318338711384</v>
+        <v>0.02240897202039719</v>
       </c>
       <c r="C48">
-        <v>0.02361239352277451</v>
+        <v>0.02206120083222287</v>
       </c>
       <c r="D48">
-        <v>0.02208048207297453</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05275955588060146</v>
+      </c>
+      <c r="E48">
+        <v>0.07752812320024685</v>
+      </c>
+      <c r="F48">
+        <v>0.001866617951889757</v>
+      </c>
+      <c r="G48">
+        <v>-0.03668595711771161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08541673205159774</v>
+        <v>0.07261569963729039</v>
       </c>
       <c r="C50">
-        <v>0.1035368891786273</v>
+        <v>0.08291864442938597</v>
       </c>
       <c r="D50">
-        <v>0.0006689848386788551</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03372671596515404</v>
+      </c>
+      <c r="E50">
+        <v>0.07481230400054888</v>
+      </c>
+      <c r="F50">
+        <v>-0.05228702948506786</v>
+      </c>
+      <c r="G50">
+        <v>-0.01534609727454905</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01449659673059023</v>
+        <v>0.01172424139106728</v>
       </c>
       <c r="C51">
-        <v>0.04658472594904699</v>
+        <v>0.02831917253728241</v>
       </c>
       <c r="D51">
-        <v>0.08221746350672168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0860081715251939</v>
+      </c>
+      <c r="E51">
+        <v>0.06012650166742225</v>
+      </c>
+      <c r="F51">
+        <v>0.006425967603241369</v>
+      </c>
+      <c r="G51">
+        <v>-0.007531304622989919</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08138044912406829</v>
+        <v>0.09632897310768805</v>
       </c>
       <c r="C53">
-        <v>0.091868105704937</v>
+        <v>0.09656376560792965</v>
       </c>
       <c r="D53">
-        <v>-0.03565276915785914</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03047531190383488</v>
+      </c>
+      <c r="E53">
+        <v>0.09200870686856547</v>
+      </c>
+      <c r="F53">
+        <v>-0.03174812294320975</v>
+      </c>
+      <c r="G53">
+        <v>-0.08208279540681079</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.04129523520314186</v>
+        <v>0.03174755595274192</v>
       </c>
       <c r="C54">
-        <v>0.03825790914841707</v>
+        <v>0.03424168605679055</v>
       </c>
       <c r="D54">
-        <v>0.03943913514683794</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.06438220921369096</v>
+      </c>
+      <c r="E54">
+        <v>0.07305744326255598</v>
+      </c>
+      <c r="F54">
+        <v>0.00384227032859208</v>
+      </c>
+      <c r="G54">
+        <v>-0.03665813999758393</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.08550563515051561</v>
+        <v>0.09265278535308545</v>
       </c>
       <c r="C55">
-        <v>0.07297196906787667</v>
+        <v>0.08003610631841071</v>
       </c>
       <c r="D55">
-        <v>-0.03199486608120999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02899977312166772</v>
+      </c>
+      <c r="E55">
+        <v>0.05038018832719685</v>
+      </c>
+      <c r="F55">
+        <v>-0.03531325869186371</v>
+      </c>
+      <c r="G55">
+        <v>-0.03790724047388912</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1439874741188126</v>
+        <v>0.1485024926610682</v>
       </c>
       <c r="C56">
-        <v>0.1047453004016107</v>
+        <v>0.116675131887045</v>
       </c>
       <c r="D56">
-        <v>-0.03453163858757848</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03606652072684593</v>
+      </c>
+      <c r="E56">
+        <v>0.04464280754779767</v>
+      </c>
+      <c r="F56">
+        <v>-0.02675228084455927</v>
+      </c>
+      <c r="G56">
+        <v>-0.05120061906642485</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04812582852552634</v>
+        <v>0.03812474541551778</v>
       </c>
       <c r="C58">
-        <v>0.007758145538884234</v>
+        <v>0.01954723021477312</v>
       </c>
       <c r="D58">
-        <v>0.3341430090554782</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.333528312707374</v>
+      </c>
+      <c r="E58">
+        <v>0.279875219252229</v>
+      </c>
+      <c r="F58">
+        <v>-0.1249967066657335</v>
+      </c>
+      <c r="G58">
+        <v>0.485604785003504</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1404053194316544</v>
+        <v>0.1551993934525901</v>
       </c>
       <c r="C59">
-        <v>-0.1973253483592985</v>
+        <v>-0.1844162395031844</v>
       </c>
       <c r="D59">
-        <v>0.02794471347205027</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0378233561492571</v>
+      </c>
+      <c r="E59">
+        <v>0.0280843642172251</v>
+      </c>
+      <c r="F59">
+        <v>0.03001823924494102</v>
+      </c>
+      <c r="G59">
+        <v>0.01302881569773491</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2542233225185572</v>
+        <v>0.2379281257584556</v>
       </c>
       <c r="C60">
-        <v>0.08162189949232347</v>
+        <v>0.08479988918305664</v>
       </c>
       <c r="D60">
-        <v>0.1912157741811993</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1831325043205128</v>
+      </c>
+      <c r="E60">
+        <v>-0.2940718805236187</v>
+      </c>
+      <c r="F60">
+        <v>-0.09230307897482008</v>
+      </c>
+      <c r="G60">
+        <v>0.02157067799591504</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04878156162153938</v>
+        <v>0.04400097992081351</v>
       </c>
       <c r="C61">
-        <v>0.05750024338667483</v>
+        <v>0.05787340999392611</v>
       </c>
       <c r="D61">
-        <v>0.06227440220691746</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.07401255318358468</v>
+      </c>
+      <c r="E61">
+        <v>0.04898452311620814</v>
+      </c>
+      <c r="F61">
+        <v>0.000931808332812998</v>
+      </c>
+      <c r="G61">
+        <v>-0.045390328518137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.0168364536594457</v>
+        <v>0.01704003693900439</v>
       </c>
       <c r="C63">
-        <v>0.0353705903208467</v>
+        <v>0.03128996254682994</v>
       </c>
       <c r="D63">
-        <v>0.01532584546037982</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.04961673424777742</v>
+      </c>
+      <c r="E63">
+        <v>0.07468713614739142</v>
+      </c>
+      <c r="F63">
+        <v>-0.02689771065956428</v>
+      </c>
+      <c r="G63">
+        <v>-0.0209178051230284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.0560417445722127</v>
+        <v>0.05800931298131291</v>
       </c>
       <c r="C64">
-        <v>0.05403616360185947</v>
+        <v>0.0671382654424896</v>
       </c>
       <c r="D64">
-        <v>0.04200149040760435</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04175977272560794</v>
+      </c>
+      <c r="E64">
+        <v>0.04225464068260165</v>
+      </c>
+      <c r="F64">
+        <v>0.01880977148859052</v>
+      </c>
+      <c r="G64">
+        <v>-0.07391384415466963</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.07297881457266669</v>
+        <v>0.060426589264828</v>
       </c>
       <c r="C65">
-        <v>0.02993176772863616</v>
+        <v>0.02583980371240858</v>
       </c>
       <c r="D65">
-        <v>0.08415619317913835</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1123694031570895</v>
+      </c>
+      <c r="E65">
+        <v>0.03258267191001171</v>
+      </c>
+      <c r="F65">
+        <v>-0.02522971899523347</v>
+      </c>
+      <c r="G65">
+        <v>0.03502536783492725</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.05582245672451879</v>
+        <v>0.04988361946675023</v>
       </c>
       <c r="C66">
-        <v>0.08102507838978161</v>
+        <v>0.07754122074547658</v>
       </c>
       <c r="D66">
-        <v>0.08654449274741201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1092408505347373</v>
+      </c>
+      <c r="E66">
+        <v>0.05521195302136522</v>
+      </c>
+      <c r="F66">
+        <v>-0.002690746552619827</v>
+      </c>
+      <c r="G66">
+        <v>-0.02289996356747051</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.0537818219748328</v>
+        <v>0.04357711003901257</v>
       </c>
       <c r="C67">
-        <v>0.04081336855791665</v>
+        <v>0.03303437079103295</v>
       </c>
       <c r="D67">
-        <v>0.004508057808364925</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02143190617698379</v>
+      </c>
+      <c r="E67">
+        <v>0.02493075132660043</v>
+      </c>
+      <c r="F67">
+        <v>-0.00786717921455821</v>
+      </c>
+      <c r="G67">
+        <v>0.005889899685296531</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1501492812728922</v>
+        <v>0.1661521810113764</v>
       </c>
       <c r="C68">
-        <v>-0.2708617666471582</v>
+        <v>-0.2306966680913551</v>
       </c>
       <c r="D68">
-        <v>-0.029748193910735</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.006825275398663964</v>
+      </c>
+      <c r="E68">
+        <v>0.05852854191591894</v>
+      </c>
+      <c r="F68">
+        <v>-0.0298476566921112</v>
+      </c>
+      <c r="G68">
+        <v>0.01137536718852762</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0941539251091429</v>
+        <v>0.0881497955598626</v>
       </c>
       <c r="C69">
-        <v>0.09668464526294882</v>
+        <v>0.1024171415760396</v>
       </c>
       <c r="D69">
-        <v>-0.00610741711802481</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02280566416506153</v>
+      </c>
+      <c r="E69">
+        <v>0.05688324421425564</v>
+      </c>
+      <c r="F69">
+        <v>-0.01037008718566258</v>
+      </c>
+      <c r="G69">
+        <v>-0.05651846843470608</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1352535556758177</v>
+        <v>0.1586751222159247</v>
       </c>
       <c r="C71">
-        <v>-0.2453027581121685</v>
+        <v>-0.2299241516777228</v>
       </c>
       <c r="D71">
-        <v>0.01493154175758887</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01843924465754363</v>
+      </c>
+      <c r="E71">
+        <v>0.06827618862570722</v>
+      </c>
+      <c r="F71">
+        <v>-0.03288241281204689</v>
+      </c>
+      <c r="G71">
+        <v>-0.05413838882430742</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.09838331217371887</v>
+        <v>0.1035228791091563</v>
       </c>
       <c r="C72">
-        <v>0.06173753298745142</v>
+        <v>0.05934694681981076</v>
       </c>
       <c r="D72">
-        <v>0.05333150806915422</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.07549896728624077</v>
+      </c>
+      <c r="E72">
+        <v>0.01935411362278163</v>
+      </c>
+      <c r="F72">
+        <v>-0.02854240287908032</v>
+      </c>
+      <c r="G72">
+        <v>-0.05156296460333752</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.3360557148155864</v>
+        <v>0.2932108209629756</v>
       </c>
       <c r="C73">
-        <v>0.01350899069531365</v>
+        <v>0.047902933301902</v>
       </c>
       <c r="D73">
-        <v>0.4634703901604011</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.3834359767652734</v>
+      </c>
+      <c r="E73">
+        <v>-0.619196735745274</v>
+      </c>
+      <c r="F73">
+        <v>-0.09324715869770797</v>
+      </c>
+      <c r="G73">
+        <v>0.06340960438824211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.09845300951010137</v>
+        <v>0.1052145644000502</v>
       </c>
       <c r="C74">
-        <v>0.1018724839432781</v>
+        <v>0.09741608274175712</v>
       </c>
       <c r="D74">
-        <v>-0.01616487654715102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02681515298480896</v>
+      </c>
+      <c r="E74">
+        <v>0.06686148542439999</v>
+      </c>
+      <c r="F74">
+        <v>-0.05164004920115855</v>
+      </c>
+      <c r="G74">
+        <v>-0.03828505616882345</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2505048478152775</v>
+        <v>0.252336591948057</v>
       </c>
       <c r="C75">
-        <v>0.1248399458616491</v>
+        <v>0.1450725656673033</v>
       </c>
       <c r="D75">
-        <v>-0.1357856405212395</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1412160283412236</v>
+      </c>
+      <c r="E75">
+        <v>0.03560893490228057</v>
+      </c>
+      <c r="F75">
+        <v>4.318465281852213e-05</v>
+      </c>
+      <c r="G75">
+        <v>-0.04455924994268858</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.115114057661823</v>
+        <v>0.128190081544691</v>
       </c>
       <c r="C76">
-        <v>0.1001353814571633</v>
+        <v>0.1039704438148167</v>
       </c>
       <c r="D76">
-        <v>-0.04826525147636871</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04787751598543405</v>
+      </c>
+      <c r="E76">
+        <v>0.09542805516821715</v>
+      </c>
+      <c r="F76">
+        <v>-0.01117266839116376</v>
+      </c>
+      <c r="G76">
+        <v>-0.0534720479322051</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.08544265589319433</v>
+        <v>0.06707374629981251</v>
       </c>
       <c r="C77">
-        <v>0.0398540727525449</v>
+        <v>0.0628288115903911</v>
       </c>
       <c r="D77">
-        <v>0.08560229709054255</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1078727358389887</v>
+      </c>
+      <c r="E77">
+        <v>0.1121435742063587</v>
+      </c>
+      <c r="F77">
+        <v>0.2458818874077102</v>
+      </c>
+      <c r="G77">
+        <v>0.130596211713622</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04237919955161729</v>
+        <v>0.0441843628685093</v>
       </c>
       <c r="C78">
-        <v>0.04474902625173703</v>
+        <v>0.05706907536793173</v>
       </c>
       <c r="D78">
-        <v>0.07652457091492111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1068939969421228</v>
+      </c>
+      <c r="E78">
+        <v>0.05705218467000268</v>
+      </c>
+      <c r="F78">
+        <v>0.000227984925912327</v>
+      </c>
+      <c r="G78">
+        <v>-0.03569697621388562</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.001886144270015059</v>
+        <v>0.03779705773557773</v>
       </c>
       <c r="C79">
-        <v>-0.001093489595184681</v>
+        <v>0.0615462633029631</v>
       </c>
       <c r="D79">
-        <v>0.00892682202182301</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.07121008671385659</v>
+      </c>
+      <c r="E79">
+        <v>0.09465981664589944</v>
+      </c>
+      <c r="F79">
+        <v>-0.05330140163533838</v>
+      </c>
+      <c r="G79">
+        <v>-0.3143094342604901</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0332980503181392</v>
+        <v>0.02801681663666314</v>
       </c>
       <c r="C80">
-        <v>0.04173231786330803</v>
+        <v>0.04448711144970891</v>
       </c>
       <c r="D80">
-        <v>0.03349208448042398</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03981438188215886</v>
+      </c>
+      <c r="E80">
+        <v>0.01695742935239482</v>
+      </c>
+      <c r="F80">
+        <v>0.04788269277845259</v>
+      </c>
+      <c r="G80">
+        <v>0.0112038643160708</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1503296394863174</v>
+        <v>0.1427201002118053</v>
       </c>
       <c r="C81">
-        <v>0.09470734022943463</v>
+        <v>0.1054152852840257</v>
       </c>
       <c r="D81">
-        <v>-0.1084638465102228</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1057484703627913</v>
+      </c>
+      <c r="E81">
+        <v>0.08092606152396582</v>
+      </c>
+      <c r="F81">
+        <v>-0.01075101808896509</v>
+      </c>
+      <c r="G81">
+        <v>-0.04465741462013945</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.228353432218959</v>
+        <v>0.2407648034163993</v>
       </c>
       <c r="C82">
-        <v>0.1515309949345326</v>
+        <v>0.2000223337632947</v>
       </c>
       <c r="D82">
-        <v>-0.1727861352995574</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2291998828600032</v>
+      </c>
+      <c r="E82">
+        <v>-0.07878066836222528</v>
+      </c>
+      <c r="F82">
+        <v>0.04938933954948339</v>
+      </c>
+      <c r="G82">
+        <v>-0.3425988351466707</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.04005116436650946</v>
+        <v>0.02640729397594186</v>
       </c>
       <c r="C83">
-        <v>0.04258516855077684</v>
+        <v>0.05004933103645843</v>
       </c>
       <c r="D83">
-        <v>0.0633986425103984</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04375519507526608</v>
+      </c>
+      <c r="E83">
+        <v>0.01727715335852089</v>
+      </c>
+      <c r="F83">
+        <v>0.02266348321080322</v>
+      </c>
+      <c r="G83">
+        <v>0.00654941639530245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>2.260708650766889e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.002786036824963864</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001852367731837832</v>
+      </c>
+      <c r="E84">
+        <v>0.008483232352222595</v>
+      </c>
+      <c r="F84">
+        <v>-0.002497111945523802</v>
+      </c>
+      <c r="G84">
+        <v>0.008661705896750149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1948403753043601</v>
+        <v>0.1833440820801782</v>
       </c>
       <c r="C85">
-        <v>0.1115676310233019</v>
+        <v>0.1202709871789437</v>
       </c>
       <c r="D85">
-        <v>-0.1284785228713128</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1152556799111168</v>
+      </c>
+      <c r="E85">
+        <v>0.0169484895061388</v>
+      </c>
+      <c r="F85">
+        <v>-0.04702824429712984</v>
+      </c>
+      <c r="G85">
+        <v>-0.09883647649526794</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01182121074815815</v>
+        <v>0.01552993033623866</v>
       </c>
       <c r="C86">
-        <v>0.03696538137722651</v>
+        <v>0.02033492486218795</v>
       </c>
       <c r="D86">
-        <v>0.1089838788427997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1009889354327972</v>
+      </c>
+      <c r="E86">
+        <v>0.0699875413496733</v>
+      </c>
+      <c r="F86">
+        <v>0.0108430349533858</v>
+      </c>
+      <c r="G86">
+        <v>-0.04026570540887088</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.03367389436684282</v>
+        <v>0.03344320082436486</v>
       </c>
       <c r="C87">
-        <v>0.001159798708691907</v>
+        <v>0.01761025925394371</v>
       </c>
       <c r="D87">
-        <v>0.1039181010048781</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1267368163635792</v>
+      </c>
+      <c r="E87">
+        <v>0.1158593250613753</v>
+      </c>
+      <c r="F87">
+        <v>0.05307938668437615</v>
+      </c>
+      <c r="G87">
+        <v>0.03695206127231181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1021218548776801</v>
+        <v>0.08771175783634537</v>
       </c>
       <c r="C88">
-        <v>0.08988276560226974</v>
+        <v>0.06851635899910243</v>
       </c>
       <c r="D88">
-        <v>-0.002508192532524847</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01992157444105099</v>
+      </c>
+      <c r="E88">
+        <v>0.05602910052369756</v>
+      </c>
+      <c r="F88">
+        <v>-0.01922657542356148</v>
+      </c>
+      <c r="G88">
+        <v>-0.04527713979813915</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2114777133318821</v>
+        <v>0.2398147384940068</v>
       </c>
       <c r="C89">
-        <v>-0.3596509849508102</v>
+        <v>-0.368209700803138</v>
       </c>
       <c r="D89">
-        <v>-0.05283160914729385</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01562900777867276</v>
+      </c>
+      <c r="E89">
+        <v>0.1037626205793441</v>
+      </c>
+      <c r="F89">
+        <v>0.06076265332557636</v>
+      </c>
+      <c r="G89">
+        <v>-0.03130944822784931</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2021857385225021</v>
+        <v>0.2176604236441036</v>
       </c>
       <c r="C90">
-        <v>-0.3108717549940703</v>
+        <v>-0.2929459551318718</v>
       </c>
       <c r="D90">
-        <v>-0.03352993713217055</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.002438142938989201</v>
+      </c>
+      <c r="E90">
+        <v>0.06333368955045154</v>
+      </c>
+      <c r="F90">
+        <v>-0.009573232616775691</v>
+      </c>
+      <c r="G90">
+        <v>0.01956351453878716</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1897700197726784</v>
+        <v>0.1835162522021083</v>
       </c>
       <c r="C91">
-        <v>0.1523688102673762</v>
+        <v>0.158756684289044</v>
       </c>
       <c r="D91">
-        <v>-0.112942413756358</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1124547826197706</v>
+      </c>
+      <c r="E91">
+        <v>0.06400152059597916</v>
+      </c>
+      <c r="F91">
+        <v>-0.02068393197390147</v>
+      </c>
+      <c r="G91">
+        <v>-0.04544027996051373</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1871758256440881</v>
+        <v>0.1997378128240385</v>
       </c>
       <c r="C92">
-        <v>-0.2616009563004708</v>
+        <v>-0.2778809444335812</v>
       </c>
       <c r="D92">
-        <v>0.006125036500695947</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.005460391932593426</v>
+      </c>
+      <c r="E92">
+        <v>0.0870653891398659</v>
+      </c>
+      <c r="F92">
+        <v>0.03678517443406831</v>
+      </c>
+      <c r="G92">
+        <v>-0.0307262466198116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2234142704456427</v>
+        <v>0.2370623253569873</v>
       </c>
       <c r="C93">
-        <v>-0.3177194986738496</v>
+        <v>-0.3022188645033135</v>
       </c>
       <c r="D93">
-        <v>-0.03133252717848734</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01397281276084585</v>
+      </c>
+      <c r="E93">
+        <v>0.04086130642557834</v>
+      </c>
+      <c r="F93">
+        <v>-0.02872616320553071</v>
+      </c>
+      <c r="G93">
+        <v>-0.03365065953429364</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.359950202918341</v>
+        <v>0.3437494051328034</v>
       </c>
       <c r="C94">
-        <v>0.189836792883275</v>
+        <v>0.2114903610190885</v>
       </c>
       <c r="D94">
-        <v>-0.5143689614002025</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4496167306114374</v>
+      </c>
+      <c r="E94">
+        <v>0.01486840134803142</v>
+      </c>
+      <c r="F94">
+        <v>0.06996240795368762</v>
+      </c>
+      <c r="G94">
+        <v>0.626299254436554</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.08951781278837215</v>
+        <v>0.06541074379901056</v>
       </c>
       <c r="C95">
-        <v>0.005272304127180729</v>
+        <v>0.03777242948227913</v>
       </c>
       <c r="D95">
-        <v>0.1648344411368276</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1475701262210679</v>
+      </c>
+      <c r="E95">
+        <v>-0.05283372054049966</v>
+      </c>
+      <c r="F95">
+        <v>0.9143582063310577</v>
+      </c>
+      <c r="G95">
+        <v>-0.02410297888980248</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1789579177500006</v>
+        <v>0.1776349024886102</v>
       </c>
       <c r="C98">
-        <v>0.01814580297881617</v>
+        <v>0.04669924698608729</v>
       </c>
       <c r="D98">
-        <v>0.2235047671305904</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1981073071557521</v>
+      </c>
+      <c r="E98">
+        <v>-0.230675004911284</v>
+      </c>
+      <c r="F98">
+        <v>-0.07748244192204022</v>
+      </c>
+      <c r="G98">
+        <v>-0.009400132704008498</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008970833777977145</v>
+        <v>0.006880732583840781</v>
       </c>
       <c r="C101">
-        <v>0.03096579016208379</v>
+        <v>0.02815184629344025</v>
       </c>
       <c r="D101">
-        <v>0.02560687048678306</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.05441114735930418</v>
+      </c>
+      <c r="E101">
+        <v>0.07173346014257985</v>
+      </c>
+      <c r="F101">
+        <v>-0.006674105290039685</v>
+      </c>
+      <c r="G101">
+        <v>-0.04036989574931586</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1182074598004113</v>
+        <v>0.1186066181298047</v>
       </c>
       <c r="C102">
-        <v>0.08126606049202727</v>
+        <v>0.1094833971339983</v>
       </c>
       <c r="D102">
-        <v>-0.03888863005366346</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05140156022465849</v>
+      </c>
+      <c r="E102">
+        <v>-0.001552659859068101</v>
+      </c>
+      <c r="F102">
+        <v>0.02911000088598402</v>
+      </c>
+      <c r="G102">
+        <v>-0.05311061816947545</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
